--- a/seaice.xlsx
+++ b/seaice.xlsx
@@ -1,51 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\PycharmProjects\hydro\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4919C86A-55C0-449E-9B8C-FBB5490BD2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Mean</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -384,346 +420,350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="B2">
-        <v>-0.25741959878135029</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="B2" t="n">
+        <v>-0.2574195987813503</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="B3">
-        <v>-0.39043469108005491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="B3" t="n">
+        <v>-0.3904346910800549</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="B4">
-        <v>-1.5750329826845339E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="B4" t="n">
+        <v>-0.01575032982684534</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="B5">
-        <v>-6.6492198081834999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="B5" t="n">
+        <v>-0.066492198081835</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="B6">
-        <v>-0.43341985868654948</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="B6" t="n">
+        <v>-0.4334198586865495</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="B7">
-        <v>-0.28501145371749381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="B7" t="n">
+        <v>-0.2850114537174938</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="B8">
-        <v>-1.376971541510545E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="B8" t="n">
+        <v>-0.01376971541510545</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="B9">
-        <v>8.9932405400943966E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="B9" t="n">
+        <v>0.08993240540094397</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="B10">
-        <v>6.9540263921912288E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="B10" t="n">
+        <v>0.06954026392191229</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="B11">
-        <v>-6.3653790125426282E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="B11" t="n">
+        <v>-0.06365379012542628</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="B12">
-        <v>-0.27342571302522323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="B12" t="n">
+        <v>-0.2734257130252232</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="B13">
-        <v>-0.16277687089769771</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="B13" t="n">
+        <v>-0.1627768708976977</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="B14">
-        <v>0.25125721713146709</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="B14" t="n">
+        <v>0.2512572171314671</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="B15">
-        <v>0.13414922865789961</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="B15" t="n">
+        <v>0.1341492286578996</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="B16">
-        <v>0.28277894510236568</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="B16" t="n">
+        <v>0.2827789451023657</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="B17">
-        <v>-0.24833724009251479</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="B17" t="n">
+        <v>-0.2483372400925148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="B18">
-        <v>0.22582253099675839</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="B18" t="n">
+        <v>0.2258225309967584</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="B19">
-        <v>0.12187301246854761</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="B19" t="n">
+        <v>0.1218730124685476</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="B20">
-        <v>0.27495628082557971</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="B20" t="n">
+        <v>0.2749562808255797</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="B21">
-        <v>0.27174993169627498</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="B21" t="n">
+        <v>0.271749931696275</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="B22">
-        <v>0.13675396508063051</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="B22" t="n">
+        <v>0.1367539650806305</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="B23">
-        <v>0.29962958316443972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="B23" t="n">
+        <v>0.2996295831644397</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="B24">
-        <v>0.12457897174005381</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="B24" t="n">
+        <v>0.1245789717400538</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="B25">
-        <v>0.22026060075282439</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="B25" t="n">
+        <v>0.2202606007528244</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="B26">
-        <v>0.11536845927379311</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="B26" t="n">
+        <v>0.1153684592737931</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="B27">
-        <v>-0.14711931062054201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="B27" t="n">
+        <v>-0.147119310620542</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="B28">
-        <v>-0.22007975811050129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="B28" t="n">
+        <v>-0.2200797581105013</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="B29">
-        <v>-0.45666862090100868</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="B29" t="n">
+        <v>-0.4566686209010087</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="B30">
-        <v>9.5299893357663298E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="B30" t="n">
+        <v>0.0952998933576633</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>0.1211891726436567</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="B32">
-        <v>-3.4580018015699911E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="B32" t="n">
+        <v>-0.03458001801569991</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="B33">
-        <v>-0.20686286987724639</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="B33" t="n">
+        <v>-0.2068628698772464</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>-0.2314790550721261</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>0.3304600876018472</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="B36">
-        <v>0.28352491333593027</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="B36" t="n">
+        <v>0.2835249133359303</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>0.1224859139334001</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>-0.2300202985838832</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B39">
-        <v>7.188059272396996E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="B39" t="n">
+        <v>0.07188059272396996</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B40">
-        <v>9.2898970370619491E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="B40" t="n">
+        <v>0.09289897037061949</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B41">
-        <v>3.1898736153475609E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="B41" t="n">
+        <v>0.0003189873615347561</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="B42">
-        <v>5.9146336884078222E-4</v>
+      <c r="B42" t="n">
+        <v>0.0005914633688407822</v>
       </c>
     </row>
   </sheetData>
